--- a/Data/HistoricalCC.xlsx
+++ b/Data/HistoricalCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,10 +57,9 @@
     <t>INCOME AND EMPLOYMENT (Non-Childcare)</t>
   </si>
   <si>
-    <t>Single select from 0-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
+    <t xml:space="preserve">To the best of your knowledge, what was your gross (before taxes) household income from all sources, including from providing childcare, in 2020?
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. 
+</t>
   </si>
   <si>
     <t>• Weekly [Free Text]
@@ -59,47 +67,7 @@
 • Or Yearly [Free Text]</t>
   </si>
   <si>
-    <t xml:space="preserve">To the best of your knowledge, what was your gross (before taxes) household income from all sources, including from providing childcare, in 2020?
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. 
-</t>
-  </si>
-  <si>
-    <t>How many people were being supported by your total household income in 2020?</t>
-  </si>
-  <si>
-    <t>DEMO (Childcare)</t>
-  </si>
-  <si>
-    <t>You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.</t>
-  </si>
-  <si>
-    <t>RAPID Modified from Child Care Aware of America</t>
-  </si>
-  <si>
-    <t>https://www.childcareaware.org/families/types-child-care/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
-•I am a director/administrator of a licensed school/center-based childcare program  
-•I operate a licensed or registered home-based childcare program in my home                                                                     
-•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  
-•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
-•I care for child(ren) age 0-5 as a babysitter or nanny                        
-•Other (please specify) [text entry] </t>
-  </si>
-  <si>
-    <t>How long have you been a childcare provider?</t>
-  </si>
-  <si>
-    <t>• Since the pandemic (less than one year)
-• 1-3 years
-• 3-10 years                                                               • 10+ years</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Archived</t>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
   </si>
   <si>
     <r>
@@ -113,7 +81,51 @@
     </r>
   </si>
   <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>How many people were being supported by your total household income in 2020?</t>
+  </si>
+  <si>
+    <t>Single select from 0-20</t>
+  </si>
+  <si>
+    <t>DEMO (Childcare)</t>
+  </si>
+  <si>
+    <t>You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
+•I am a director/administrator of a licensed school/center-based childcare program  
+•I operate a licensed or registered home-based childcare program in my home                                                                     
+•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  
+•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
+•I care for child(ren) age 0-5 as a babysitter or nanny                        
+•Other (please specify) [text entry] </t>
+  </si>
+  <si>
+    <t>RAPID Modified from Child Care Aware of America</t>
+  </si>
+  <si>
+    <t>https://www.childcareaware.org/families/types-child-care/</t>
+  </si>
+  <si>
+    <t>How long have you been a childcare provider?</t>
+  </si>
+  <si>
+    <t>• Since the pandemic (less than one year)
+• 1-3 years
+• 3-10 years                                                               • 10+ years</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
     <t>CHILDCARE EXPERIENCES</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, how often do you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
   </si>
   <si>
     <t>• Never
@@ -127,6 +139,11 @@
     <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 109 of NSECE User Guide)</t>
   </si>
   <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, how do you feel about the following statement: 
+ “There were major sources of stress in the children’s lives that I couldn’t do anything about"
+</t>
+  </si>
+  <si>
     <t>• Strongly agree  
 • Somewhat agree 
 • Not sure 
@@ -135,18 +152,10 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>Since the coronavirus (COVID-19) pandemic, how often do you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, how do you feel about the following statement: 
- “There were major sources of stress in the children’s lives that I couldn’t do anything about"
-</t>
+    <t>Referral Question</t>
   </si>
   <si>
     <t>What is your relationship to the person/group who referred you?   </t>
-  </si>
-  <si>
-    <t>Referral Question</t>
   </si>
   <si>
     <t xml:space="preserve">• I provide childcare for their child(ren)
@@ -157,13 +166,16 @@
 </t>
   </si>
   <si>
+    <t>Open Ended (childcare)</t>
+  </si>
+  <si>
     <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how you are doing or what you need as a childcare provider during this time?</t>
   </si>
   <si>
-    <t>Open Ended (childcare)</t>
-  </si>
-  <si>
     <t>Open ended</t>
+  </si>
+  <si>
+    <t>Child Tax Credit</t>
   </si>
   <si>
     <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
@@ -180,20 +192,17 @@
     <t>https://www.cbpp.org/</t>
   </si>
   <si>
-    <t>Child Tax Credit</t>
+    <t xml:space="preserve"> Archived</t>
   </si>
   <si>
     <t>Do you have someone who can help you access the IRS portal beginning July 1st, 2021?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Archived</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,7 +441,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,16 +450,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -464,6 +467,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,21 +793,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B04437-943E-C945-AE85-6A5659D801E0}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,62 +827,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="236.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>20</v>
+      <c r="F2" s="31" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="47.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="236.25">
       <c r="A4" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -896,22 +908,22 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="7" customFormat="1" ht="63">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -937,57 +949,57 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:29" ht="110.25">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="126">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26" t="s">
-        <v>20</v>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="25" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:29" s="23" customFormat="1" ht="141.75">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>19</v>
+      <c r="D8" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1006,21 +1018,21 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:29" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:29" s="7" customFormat="1" ht="105">
+      <c r="A9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1039,46 +1051,46 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="32"/>
+      <c r="X9" s="28"/>
     </row>
-    <row r="10" spans="1:29" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:29" ht="47.25">
+      <c r="A10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="F10" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="47.25">
+      <c r="A11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>20</v>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
